--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_174.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_174.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d81765-Reviews-Crowne_Plaza_Los_Angeles_Harbor_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>662</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Crowne-Plaza-Los-Angeles-Harbor-Hotel.h34599.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_174.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_174.xlsx
@@ -9522,7 +9522,7 @@
         <v>28239</v>
       </c>
       <c r="B3" t="n">
-        <v>133931</v>
+        <v>134056</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -9591,7 +9591,7 @@
         <v>28239</v>
       </c>
       <c r="B4" t="n">
-        <v>133932</v>
+        <v>164788</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -9804,7 +9804,7 @@
         <v>28239</v>
       </c>
       <c r="B7" t="n">
-        <v>133933</v>
+        <v>164789</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -9875,7 +9875,7 @@
         <v>28239</v>
       </c>
       <c r="B8" t="n">
-        <v>133934</v>
+        <v>164790</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -9946,7 +9946,7 @@
         <v>28239</v>
       </c>
       <c r="B9" t="n">
-        <v>133935</v>
+        <v>164791</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -10017,7 +10017,7 @@
         <v>28239</v>
       </c>
       <c r="B10" t="n">
-        <v>133936</v>
+        <v>164792</v>
       </c>
       <c r="C10" t="s">
         <v>125</v>
@@ -10088,7 +10088,7 @@
         <v>28239</v>
       </c>
       <c r="B11" t="n">
-        <v>133937</v>
+        <v>164793</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
@@ -10289,7 +10289,7 @@
         <v>28239</v>
       </c>
       <c r="B14" t="n">
-        <v>133938</v>
+        <v>164794</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -10354,7 +10354,7 @@
         <v>28239</v>
       </c>
       <c r="B15" t="n">
-        <v>133939</v>
+        <v>164795</v>
       </c>
       <c r="C15" t="s">
         <v>168</v>
@@ -10419,7 +10419,7 @@
         <v>28239</v>
       </c>
       <c r="B16" t="n">
-        <v>133940</v>
+        <v>164796</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
@@ -10559,7 +10559,7 @@
         <v>28239</v>
       </c>
       <c r="B18" t="n">
-        <v>133941</v>
+        <v>164797</v>
       </c>
       <c r="C18" t="s">
         <v>197</v>
@@ -10624,7 +10624,7 @@
         <v>28239</v>
       </c>
       <c r="B19" t="n">
-        <v>133942</v>
+        <v>164798</v>
       </c>
       <c r="C19" t="s">
         <v>206</v>
@@ -10689,7 +10689,7 @@
         <v>28239</v>
       </c>
       <c r="B20" t="n">
-        <v>133943</v>
+        <v>164799</v>
       </c>
       <c r="C20" t="s">
         <v>215</v>
@@ -10754,7 +10754,7 @@
         <v>28239</v>
       </c>
       <c r="B21" t="n">
-        <v>133944</v>
+        <v>164800</v>
       </c>
       <c r="C21" t="s">
         <v>224</v>
@@ -10819,7 +10819,7 @@
         <v>28239</v>
       </c>
       <c r="B22" t="n">
-        <v>133945</v>
+        <v>164801</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -10880,7 +10880,7 @@
         <v>28239</v>
       </c>
       <c r="B23" t="n">
-        <v>133946</v>
+        <v>164802</v>
       </c>
       <c r="C23" t="s">
         <v>239</v>
@@ -10945,7 +10945,7 @@
         <v>28239</v>
       </c>
       <c r="B24" t="n">
-        <v>133947</v>
+        <v>164803</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -11087,7 +11087,7 @@
         <v>28239</v>
       </c>
       <c r="B26" t="n">
-        <v>133948</v>
+        <v>164804</v>
       </c>
       <c r="C26" t="s">
         <v>264</v>
@@ -11286,7 +11286,7 @@
         <v>28239</v>
       </c>
       <c r="B29" t="n">
-        <v>133949</v>
+        <v>164805</v>
       </c>
       <c r="C29" t="s">
         <v>288</v>
@@ -11351,7 +11351,7 @@
         <v>28239</v>
       </c>
       <c r="B30" t="n">
-        <v>133950</v>
+        <v>164806</v>
       </c>
       <c r="C30" t="s">
         <v>297</v>
@@ -11422,7 +11422,7 @@
         <v>28239</v>
       </c>
       <c r="B31" t="n">
-        <v>133951</v>
+        <v>164807</v>
       </c>
       <c r="C31" t="s">
         <v>304</v>
@@ -11493,7 +11493,7 @@
         <v>28239</v>
       </c>
       <c r="B32" t="n">
-        <v>133952</v>
+        <v>164808</v>
       </c>
       <c r="C32" t="s">
         <v>310</v>
@@ -11564,7 +11564,7 @@
         <v>28239</v>
       </c>
       <c r="B33" t="n">
-        <v>133953</v>
+        <v>164809</v>
       </c>
       <c r="C33" t="s">
         <v>317</v>
@@ -11635,7 +11635,7 @@
         <v>28239</v>
       </c>
       <c r="B34" t="n">
-        <v>133954</v>
+        <v>164810</v>
       </c>
       <c r="C34" t="s">
         <v>327</v>
@@ -11700,7 +11700,7 @@
         <v>28239</v>
       </c>
       <c r="B35" t="n">
-        <v>133955</v>
+        <v>164811</v>
       </c>
       <c r="C35" t="s">
         <v>336</v>
@@ -11830,7 +11830,7 @@
         <v>28239</v>
       </c>
       <c r="B37" t="n">
-        <v>133956</v>
+        <v>164812</v>
       </c>
       <c r="C37" t="s">
         <v>352</v>
@@ -11891,7 +11891,7 @@
         <v>28239</v>
       </c>
       <c r="B38" t="n">
-        <v>133957</v>
+        <v>164813</v>
       </c>
       <c r="C38" t="s">
         <v>359</v>
@@ -11956,7 +11956,7 @@
         <v>28239</v>
       </c>
       <c r="B39" t="n">
-        <v>133958</v>
+        <v>164814</v>
       </c>
       <c r="C39" t="s">
         <v>366</v>
@@ -12017,7 +12017,7 @@
         <v>28239</v>
       </c>
       <c r="B40" t="n">
-        <v>133959</v>
+        <v>164815</v>
       </c>
       <c r="C40" t="s">
         <v>373</v>
@@ -12088,7 +12088,7 @@
         <v>28239</v>
       </c>
       <c r="B41" t="n">
-        <v>133960</v>
+        <v>164816</v>
       </c>
       <c r="C41" t="s">
         <v>381</v>
@@ -12423,7 +12423,7 @@
         <v>28239</v>
       </c>
       <c r="B46" t="n">
-        <v>133961</v>
+        <v>164817</v>
       </c>
       <c r="C46" t="s">
         <v>420</v>
@@ -12492,7 +12492,7 @@
         <v>28239</v>
       </c>
       <c r="B47" t="n">
-        <v>133962</v>
+        <v>164818</v>
       </c>
       <c r="C47" t="s">
         <v>427</v>
@@ -12557,7 +12557,7 @@
         <v>28239</v>
       </c>
       <c r="B48" t="n">
-        <v>133963</v>
+        <v>164819</v>
       </c>
       <c r="C48" t="s">
         <v>437</v>
@@ -12618,7 +12618,7 @@
         <v>28239</v>
       </c>
       <c r="B49" t="n">
-        <v>133964</v>
+        <v>164820</v>
       </c>
       <c r="C49" t="s">
         <v>443</v>
@@ -12746,7 +12746,7 @@
         <v>28239</v>
       </c>
       <c r="B51" t="n">
-        <v>133965</v>
+        <v>164821</v>
       </c>
       <c r="C51" t="s">
         <v>456</v>
@@ -12811,7 +12811,7 @@
         <v>28239</v>
       </c>
       <c r="B52" t="n">
-        <v>133966</v>
+        <v>164822</v>
       </c>
       <c r="C52" t="s">
         <v>464</v>
@@ -12876,7 +12876,7 @@
         <v>28239</v>
       </c>
       <c r="B53" t="n">
-        <v>133967</v>
+        <v>164823</v>
       </c>
       <c r="C53" t="s">
         <v>474</v>
@@ -12943,7 +12943,7 @@
         <v>28239</v>
       </c>
       <c r="B54" t="n">
-        <v>133968</v>
+        <v>164824</v>
       </c>
       <c r="C54" t="s">
         <v>481</v>
@@ -13260,7 +13260,7 @@
         <v>28239</v>
       </c>
       <c r="B59" t="n">
-        <v>133969</v>
+        <v>164825</v>
       </c>
       <c r="C59" t="s">
         <v>512</v>
@@ -13321,7 +13321,7 @@
         <v>28239</v>
       </c>
       <c r="B60" t="n">
-        <v>133970</v>
+        <v>164826</v>
       </c>
       <c r="C60" t="s">
         <v>518</v>
@@ -13392,7 +13392,7 @@
         <v>28239</v>
       </c>
       <c r="B61" t="n">
-        <v>133971</v>
+        <v>164827</v>
       </c>
       <c r="C61" t="s">
         <v>527</v>
@@ -13457,7 +13457,7 @@
         <v>28239</v>
       </c>
       <c r="B62" t="n">
-        <v>133972</v>
+        <v>164828</v>
       </c>
       <c r="C62" t="s">
         <v>535</v>
@@ -13526,7 +13526,7 @@
         <v>28239</v>
       </c>
       <c r="B63" t="n">
-        <v>133973</v>
+        <v>164829</v>
       </c>
       <c r="C63" t="s">
         <v>544</v>
@@ -13656,7 +13656,7 @@
         <v>28239</v>
       </c>
       <c r="B65" t="n">
-        <v>133974</v>
+        <v>164830</v>
       </c>
       <c r="C65" t="s">
         <v>562</v>
@@ -13918,7 +13918,7 @@
         <v>28239</v>
       </c>
       <c r="B69" t="n">
-        <v>133975</v>
+        <v>164831</v>
       </c>
       <c r="C69" t="s">
         <v>592</v>
@@ -13987,7 +13987,7 @@
         <v>28239</v>
       </c>
       <c r="B70" t="n">
-        <v>133976</v>
+        <v>164832</v>
       </c>
       <c r="C70" t="s">
         <v>601</v>
@@ -14048,7 +14048,7 @@
         <v>28239</v>
       </c>
       <c r="B71" t="n">
-        <v>133977</v>
+        <v>164833</v>
       </c>
       <c r="C71" t="s">
         <v>607</v>
@@ -14182,7 +14182,7 @@
         <v>28239</v>
       </c>
       <c r="B73" t="n">
-        <v>133978</v>
+        <v>164834</v>
       </c>
       <c r="C73" t="s">
         <v>622</v>
@@ -14247,7 +14247,7 @@
         <v>28239</v>
       </c>
       <c r="B74" t="n">
-        <v>133979</v>
+        <v>164835</v>
       </c>
       <c r="C74" t="s">
         <v>631</v>
@@ -14318,7 +14318,7 @@
         <v>28239</v>
       </c>
       <c r="B75" t="n">
-        <v>133980</v>
+        <v>164836</v>
       </c>
       <c r="C75" t="s">
         <v>640</v>
@@ -14383,7 +14383,7 @@
         <v>28239</v>
       </c>
       <c r="B76" t="n">
-        <v>133981</v>
+        <v>164837</v>
       </c>
       <c r="C76" t="s">
         <v>648</v>
@@ -14448,7 +14448,7 @@
         <v>28239</v>
       </c>
       <c r="B77" t="n">
-        <v>133982</v>
+        <v>164838</v>
       </c>
       <c r="C77" t="s">
         <v>655</v>
@@ -14519,7 +14519,7 @@
         <v>28239</v>
       </c>
       <c r="B78" t="n">
-        <v>133983</v>
+        <v>164839</v>
       </c>
       <c r="C78" t="s">
         <v>663</v>
@@ -14649,7 +14649,7 @@
         <v>28239</v>
       </c>
       <c r="B80" t="n">
-        <v>133984</v>
+        <v>164840</v>
       </c>
       <c r="C80" t="s">
         <v>676</v>
@@ -14714,7 +14714,7 @@
         <v>28239</v>
       </c>
       <c r="B81" t="n">
-        <v>133985</v>
+        <v>164841</v>
       </c>
       <c r="C81" t="s">
         <v>683</v>
@@ -14840,7 +14840,7 @@
         <v>28239</v>
       </c>
       <c r="B83" t="n">
-        <v>133986</v>
+        <v>164842</v>
       </c>
       <c r="C83" t="s">
         <v>699</v>
@@ -14905,7 +14905,7 @@
         <v>28239</v>
       </c>
       <c r="B84" t="n">
-        <v>133987</v>
+        <v>164843</v>
       </c>
       <c r="C84" t="s">
         <v>705</v>
@@ -14976,7 +14976,7 @@
         <v>28239</v>
       </c>
       <c r="B85" t="n">
-        <v>133988</v>
+        <v>164844</v>
       </c>
       <c r="C85" t="s">
         <v>714</v>
@@ -15102,7 +15102,7 @@
         <v>28239</v>
       </c>
       <c r="B87" t="n">
-        <v>133989</v>
+        <v>164845</v>
       </c>
       <c r="C87" t="s">
         <v>730</v>
@@ -15167,7 +15167,7 @@
         <v>28239</v>
       </c>
       <c r="B88" t="n">
-        <v>133990</v>
+        <v>164846</v>
       </c>
       <c r="C88" t="s">
         <v>739</v>
@@ -15295,7 +15295,7 @@
         <v>28239</v>
       </c>
       <c r="B90" t="n">
-        <v>133991</v>
+        <v>164847</v>
       </c>
       <c r="C90" t="s">
         <v>752</v>
@@ -15364,7 +15364,7 @@
         <v>28239</v>
       </c>
       <c r="B91" t="n">
-        <v>133992</v>
+        <v>164848</v>
       </c>
       <c r="C91" t="s">
         <v>761</v>
@@ -15500,7 +15500,7 @@
         <v>28239</v>
       </c>
       <c r="B93" t="n">
-        <v>133993</v>
+        <v>164849</v>
       </c>
       <c r="C93" t="s">
         <v>780</v>
@@ -15630,7 +15630,7 @@
         <v>28239</v>
       </c>
       <c r="B95" t="n">
-        <v>133994</v>
+        <v>164850</v>
       </c>
       <c r="C95" t="s">
         <v>796</v>
@@ -15697,7 +15697,7 @@
         <v>28239</v>
       </c>
       <c r="B96" t="n">
-        <v>133995</v>
+        <v>164851</v>
       </c>
       <c r="C96" t="s">
         <v>802</v>
@@ -15768,7 +15768,7 @@
         <v>28239</v>
       </c>
       <c r="B97" t="n">
-        <v>133996</v>
+        <v>164852</v>
       </c>
       <c r="C97" t="s">
         <v>811</v>
@@ -15829,7 +15829,7 @@
         <v>28239</v>
       </c>
       <c r="B98" t="n">
-        <v>133997</v>
+        <v>164853</v>
       </c>
       <c r="C98" t="s">
         <v>818</v>
@@ -15965,7 +15965,7 @@
         <v>28239</v>
       </c>
       <c r="B100" t="n">
-        <v>133998</v>
+        <v>164854</v>
       </c>
       <c r="C100" t="s">
         <v>834</v>
@@ -16091,7 +16091,7 @@
         <v>28239</v>
       </c>
       <c r="B102" t="n">
-        <v>133999</v>
+        <v>164855</v>
       </c>
       <c r="C102" t="s">
         <v>848</v>
@@ -16223,7 +16223,7 @@
         <v>28239</v>
       </c>
       <c r="B104" t="n">
-        <v>134000</v>
+        <v>164856</v>
       </c>
       <c r="C104" t="s">
         <v>864</v>
@@ -16408,7 +16408,7 @@
         <v>28239</v>
       </c>
       <c r="B107" t="n">
-        <v>134001</v>
+        <v>164857</v>
       </c>
       <c r="C107" t="s">
         <v>883</v>
@@ -16479,7 +16479,7 @@
         <v>28239</v>
       </c>
       <c r="B108" t="n">
-        <v>134002</v>
+        <v>164858</v>
       </c>
       <c r="C108" t="s">
         <v>892</v>
@@ -16546,7 +16546,7 @@
         <v>28239</v>
       </c>
       <c r="B109" t="n">
-        <v>134003</v>
+        <v>164859</v>
       </c>
       <c r="C109" t="s">
         <v>900</v>
@@ -16617,7 +16617,7 @@
         <v>28239</v>
       </c>
       <c r="B110" t="n">
-        <v>134004</v>
+        <v>164860</v>
       </c>
       <c r="C110" t="s">
         <v>907</v>
@@ -16743,7 +16743,7 @@
         <v>28239</v>
       </c>
       <c r="B112" t="n">
-        <v>134005</v>
+        <v>164861</v>
       </c>
       <c r="C112" t="s">
         <v>919</v>
@@ -16804,7 +16804,7 @@
         <v>28239</v>
       </c>
       <c r="B113" t="n">
-        <v>134006</v>
+        <v>164862</v>
       </c>
       <c r="C113" t="s">
         <v>925</v>
@@ -16871,7 +16871,7 @@
         <v>28239</v>
       </c>
       <c r="B114" t="n">
-        <v>134007</v>
+        <v>164863</v>
       </c>
       <c r="C114" t="s">
         <v>932</v>
@@ -16932,7 +16932,7 @@
         <v>28239</v>
       </c>
       <c r="B115" t="n">
-        <v>134008</v>
+        <v>164864</v>
       </c>
       <c r="C115" t="s">
         <v>939</v>
@@ -16997,7 +16997,7 @@
         <v>28239</v>
       </c>
       <c r="B116" t="n">
-        <v>134009</v>
+        <v>164865</v>
       </c>
       <c r="C116" t="s">
         <v>944</v>
@@ -17064,7 +17064,7 @@
         <v>28239</v>
       </c>
       <c r="B117" t="n">
-        <v>134010</v>
+        <v>164866</v>
       </c>
       <c r="C117" t="s">
         <v>950</v>
@@ -17129,7 +17129,7 @@
         <v>28239</v>
       </c>
       <c r="B118" t="n">
-        <v>134011</v>
+        <v>164867</v>
       </c>
       <c r="C118" t="s">
         <v>959</v>
@@ -17200,7 +17200,7 @@
         <v>28239</v>
       </c>
       <c r="B119" t="n">
-        <v>134012</v>
+        <v>164868</v>
       </c>
       <c r="C119" t="s">
         <v>968</v>
@@ -17336,7 +17336,7 @@
         <v>28239</v>
       </c>
       <c r="B121" t="n">
-        <v>134013</v>
+        <v>164869</v>
       </c>
       <c r="C121" t="s">
         <v>985</v>
@@ -17466,7 +17466,7 @@
         <v>28239</v>
       </c>
       <c r="B123" t="n">
-        <v>134014</v>
+        <v>164870</v>
       </c>
       <c r="C123" t="s">
         <v>1000</v>
@@ -17533,7 +17533,7 @@
         <v>28239</v>
       </c>
       <c r="B124" t="n">
-        <v>134015</v>
+        <v>164871</v>
       </c>
       <c r="C124" t="s">
         <v>1007</v>
@@ -17598,7 +17598,7 @@
         <v>28239</v>
       </c>
       <c r="B125" t="n">
-        <v>134016</v>
+        <v>164872</v>
       </c>
       <c r="C125" t="s">
         <v>1016</v>
@@ -17663,7 +17663,7 @@
         <v>28239</v>
       </c>
       <c r="B126" t="n">
-        <v>134017</v>
+        <v>164873</v>
       </c>
       <c r="C126" t="s">
         <v>1026</v>
@@ -17728,7 +17728,7 @@
         <v>28239</v>
       </c>
       <c r="B127" t="n">
-        <v>134018</v>
+        <v>164874</v>
       </c>
       <c r="C127" t="s">
         <v>1036</v>
@@ -17793,7 +17793,7 @@
         <v>28239</v>
       </c>
       <c r="B128" t="n">
-        <v>134019</v>
+        <v>164875</v>
       </c>
       <c r="C128" t="s">
         <v>1045</v>
@@ -17864,7 +17864,7 @@
         <v>28239</v>
       </c>
       <c r="B129" t="n">
-        <v>134020</v>
+        <v>164876</v>
       </c>
       <c r="C129" t="s">
         <v>1054</v>
@@ -17929,7 +17929,7 @@
         <v>28239</v>
       </c>
       <c r="B130" t="n">
-        <v>134021</v>
+        <v>164877</v>
       </c>
       <c r="C130" t="s">
         <v>1062</v>
@@ -18065,7 +18065,7 @@
         <v>28239</v>
       </c>
       <c r="B132" t="n">
-        <v>134022</v>
+        <v>164878</v>
       </c>
       <c r="C132" t="s">
         <v>1078</v>
@@ -18132,7 +18132,7 @@
         <v>28239</v>
       </c>
       <c r="B133" t="n">
-        <v>134023</v>
+        <v>164879</v>
       </c>
       <c r="C133" t="s">
         <v>1084</v>
@@ -18193,7 +18193,7 @@
         <v>28239</v>
       </c>
       <c r="B134" t="n">
-        <v>134024</v>
+        <v>164880</v>
       </c>
       <c r="C134" t="s">
         <v>1090</v>
@@ -18325,7 +18325,7 @@
         <v>28239</v>
       </c>
       <c r="B136" t="n">
-        <v>134025</v>
+        <v>164881</v>
       </c>
       <c r="C136" t="s">
         <v>1105</v>
@@ -18396,7 +18396,7 @@
         <v>28239</v>
       </c>
       <c r="B137" t="n">
-        <v>134026</v>
+        <v>142765</v>
       </c>
       <c r="C137" t="s">
         <v>1114</v>
@@ -18467,7 +18467,7 @@
         <v>28239</v>
       </c>
       <c r="B138" t="n">
-        <v>134027</v>
+        <v>164882</v>
       </c>
       <c r="C138" t="s">
         <v>1123</v>
@@ -18538,7 +18538,7 @@
         <v>28239</v>
       </c>
       <c r="B139" t="n">
-        <v>134028</v>
+        <v>164883</v>
       </c>
       <c r="C139" t="s">
         <v>1132</v>
@@ -18609,7 +18609,7 @@
         <v>28239</v>
       </c>
       <c r="B140" t="n">
-        <v>134029</v>
+        <v>164884</v>
       </c>
       <c r="C140" t="s">
         <v>1141</v>
@@ -18674,7 +18674,7 @@
         <v>28239</v>
       </c>
       <c r="B141" t="n">
-        <v>134030</v>
+        <v>164885</v>
       </c>
       <c r="C141" t="s">
         <v>1149</v>
@@ -18802,7 +18802,7 @@
         <v>28239</v>
       </c>
       <c r="B143" t="n">
-        <v>134031</v>
+        <v>164886</v>
       </c>
       <c r="C143" t="s">
         <v>1163</v>
@@ -18926,7 +18926,7 @@
         <v>28239</v>
       </c>
       <c r="B145" t="n">
-        <v>134032</v>
+        <v>164887</v>
       </c>
       <c r="C145" t="s">
         <v>1177</v>
@@ -18995,7 +18995,7 @@
         <v>28239</v>
       </c>
       <c r="B146" t="n">
-        <v>134033</v>
+        <v>164888</v>
       </c>
       <c r="C146" t="s">
         <v>1187</v>
@@ -19066,7 +19066,7 @@
         <v>28239</v>
       </c>
       <c r="B147" t="n">
-        <v>134034</v>
+        <v>164889</v>
       </c>
       <c r="C147" t="s">
         <v>1196</v>
@@ -19208,7 +19208,7 @@
         <v>28239</v>
       </c>
       <c r="B149" t="n">
-        <v>134035</v>
+        <v>164890</v>
       </c>
       <c r="C149" t="s">
         <v>1212</v>
@@ -19273,7 +19273,7 @@
         <v>28239</v>
       </c>
       <c r="B150" t="n">
-        <v>134036</v>
+        <v>164891</v>
       </c>
       <c r="C150" t="s">
         <v>1222</v>
@@ -19342,7 +19342,7 @@
         <v>28239</v>
       </c>
       <c r="B151" t="n">
-        <v>134037</v>
+        <v>164892</v>
       </c>
       <c r="C151" t="s">
         <v>1231</v>
@@ -19411,7 +19411,7 @@
         <v>28239</v>
       </c>
       <c r="B152" t="n">
-        <v>134038</v>
+        <v>164893</v>
       </c>
       <c r="C152" t="s">
         <v>1238</v>
@@ -19476,7 +19476,7 @@
         <v>28239</v>
       </c>
       <c r="B153" t="n">
-        <v>134039</v>
+        <v>164894</v>
       </c>
       <c r="C153" t="s">
         <v>1247</v>
@@ -19541,7 +19541,7 @@
         <v>28239</v>
       </c>
       <c r="B154" t="n">
-        <v>134040</v>
+        <v>164895</v>
       </c>
       <c r="C154" t="s">
         <v>1253</v>
@@ -19610,7 +19610,7 @@
         <v>28239</v>
       </c>
       <c r="B155" t="n">
-        <v>134041</v>
+        <v>164896</v>
       </c>
       <c r="C155" t="s">
         <v>1262</v>
@@ -19679,7 +19679,7 @@
         <v>28239</v>
       </c>
       <c r="B156" t="n">
-        <v>134042</v>
+        <v>164897</v>
       </c>
       <c r="C156" t="s">
         <v>1272</v>
@@ -19748,7 +19748,7 @@
         <v>28239</v>
       </c>
       <c r="B157" t="n">
-        <v>134043</v>
+        <v>164898</v>
       </c>
       <c r="C157" t="s">
         <v>1281</v>
@@ -19813,7 +19813,7 @@
         <v>28239</v>
       </c>
       <c r="B158" t="n">
-        <v>134044</v>
+        <v>164899</v>
       </c>
       <c r="C158" t="s">
         <v>1290</v>
@@ -19878,7 +19878,7 @@
         <v>28239</v>
       </c>
       <c r="B159" t="n">
-        <v>134045</v>
+        <v>164900</v>
       </c>
       <c r="C159" t="s">
         <v>1300</v>
@@ -19947,7 +19947,7 @@
         <v>28239</v>
       </c>
       <c r="B160" t="n">
-        <v>134046</v>
+        <v>164901</v>
       </c>
       <c r="C160" t="s">
         <v>1310</v>
@@ -20018,7 +20018,7 @@
         <v>28239</v>
       </c>
       <c r="B161" t="n">
-        <v>134047</v>
+        <v>164902</v>
       </c>
       <c r="C161" t="s">
         <v>1318</v>
@@ -20089,7 +20089,7 @@
         <v>28239</v>
       </c>
       <c r="B162" t="n">
-        <v>134048</v>
+        <v>164903</v>
       </c>
       <c r="C162" t="s">
         <v>1327</v>
@@ -20160,7 +20160,7 @@
         <v>28239</v>
       </c>
       <c r="B163" t="n">
-        <v>134049</v>
+        <v>164904</v>
       </c>
       <c r="C163" t="s">
         <v>1333</v>
@@ -20225,7 +20225,7 @@
         <v>28239</v>
       </c>
       <c r="B164" t="n">
-        <v>134050</v>
+        <v>164905</v>
       </c>
       <c r="C164" t="s">
         <v>1340</v>
@@ -20359,7 +20359,7 @@
         <v>28239</v>
       </c>
       <c r="B166" t="n">
-        <v>134051</v>
+        <v>164906</v>
       </c>
       <c r="C166" t="s">
         <v>1357</v>
@@ -20495,7 +20495,7 @@
         <v>28239</v>
       </c>
       <c r="B168" t="n">
-        <v>134052</v>
+        <v>164907</v>
       </c>
       <c r="C168" t="s">
         <v>1371</v>
@@ -20637,7 +20637,7 @@
         <v>28239</v>
       </c>
       <c r="B170" t="n">
-        <v>134053</v>
+        <v>164908</v>
       </c>
       <c r="C170" t="s">
         <v>1389</v>
@@ -20702,7 +20702,7 @@
         <v>28239</v>
       </c>
       <c r="B171" t="n">
-        <v>134054</v>
+        <v>164909</v>
       </c>
       <c r="C171" t="s">
         <v>1399</v>
@@ -20771,7 +20771,7 @@
         <v>28239</v>
       </c>
       <c r="B172" t="n">
-        <v>134055</v>
+        <v>164910</v>
       </c>
       <c r="C172" t="s">
         <v>1409</v>
@@ -20901,7 +20901,7 @@
         <v>28239</v>
       </c>
       <c r="B174" t="n">
-        <v>134056</v>
+        <v>164911</v>
       </c>
       <c r="C174" t="s">
         <v>1423</v>
@@ -20972,7 +20972,7 @@
         <v>28239</v>
       </c>
       <c r="B175" t="n">
-        <v>134057</v>
+        <v>164912</v>
       </c>
       <c r="C175" t="s">
         <v>1430</v>
@@ -21039,7 +21039,7 @@
         <v>28239</v>
       </c>
       <c r="B176" t="n">
-        <v>134058</v>
+        <v>164913</v>
       </c>
       <c r="C176" t="s">
         <v>1439</v>
@@ -21248,7 +21248,7 @@
         <v>28239</v>
       </c>
       <c r="B179" t="n">
-        <v>134059</v>
+        <v>164914</v>
       </c>
       <c r="C179" t="s">
         <v>1468</v>
@@ -21317,7 +21317,7 @@
         <v>28239</v>
       </c>
       <c r="B180" t="n">
-        <v>134060</v>
+        <v>164915</v>
       </c>
       <c r="C180" t="s">
         <v>1475</v>
@@ -21386,7 +21386,7 @@
         <v>28239</v>
       </c>
       <c r="B181" t="n">
-        <v>134061</v>
+        <v>164916</v>
       </c>
       <c r="C181" t="s">
         <v>1484</v>
@@ -21457,7 +21457,7 @@
         <v>28239</v>
       </c>
       <c r="B182" t="n">
-        <v>134062</v>
+        <v>164917</v>
       </c>
       <c r="C182" t="s">
         <v>1492</v>
@@ -21532,7 +21532,7 @@
         <v>28239</v>
       </c>
       <c r="B183" t="n">
-        <v>134063</v>
+        <v>164918</v>
       </c>
       <c r="C183" t="s">
         <v>1501</v>
@@ -21597,7 +21597,7 @@
         <v>28239</v>
       </c>
       <c r="B184" t="n">
-        <v>134064</v>
+        <v>164919</v>
       </c>
       <c r="C184" t="s">
         <v>1508</v>
@@ -21806,7 +21806,7 @@
         <v>28239</v>
       </c>
       <c r="B187" t="n">
-        <v>134065</v>
+        <v>164920</v>
       </c>
       <c r="C187" t="s">
         <v>1536</v>
@@ -21877,7 +21877,7 @@
         <v>28239</v>
       </c>
       <c r="B188" t="n">
-        <v>134066</v>
+        <v>164921</v>
       </c>
       <c r="C188" t="s">
         <v>1542</v>
@@ -21948,7 +21948,7 @@
         <v>28239</v>
       </c>
       <c r="B189" t="n">
-        <v>134067</v>
+        <v>164922</v>
       </c>
       <c r="C189" t="s">
         <v>1551</v>
@@ -22019,7 +22019,7 @@
         <v>28239</v>
       </c>
       <c r="B190" t="n">
-        <v>134068</v>
+        <v>164923</v>
       </c>
       <c r="C190" t="s">
         <v>1559</v>
@@ -22088,7 +22088,7 @@
         <v>28239</v>
       </c>
       <c r="B191" t="n">
-        <v>134069</v>
+        <v>164924</v>
       </c>
       <c r="C191" t="s">
         <v>1568</v>
@@ -22297,7 +22297,7 @@
         <v>28239</v>
       </c>
       <c r="B194" t="n">
-        <v>134070</v>
+        <v>164925</v>
       </c>
       <c r="C194" t="s">
         <v>1596</v>
@@ -22372,7 +22372,7 @@
         <v>28239</v>
       </c>
       <c r="B195" t="n">
-        <v>134071</v>
+        <v>164926</v>
       </c>
       <c r="C195" t="s">
         <v>1605</v>
@@ -22447,7 +22447,7 @@
         <v>28239</v>
       </c>
       <c r="B196" t="n">
-        <v>134072</v>
+        <v>164927</v>
       </c>
       <c r="C196" t="s">
         <v>1614</v>
@@ -22520,7 +22520,7 @@
         <v>28239</v>
       </c>
       <c r="B197" t="n">
-        <v>134073</v>
+        <v>164928</v>
       </c>
       <c r="C197" t="s">
         <v>1622</v>
@@ -22656,7 +22656,7 @@
         <v>28239</v>
       </c>
       <c r="B199" t="n">
-        <v>134074</v>
+        <v>164929</v>
       </c>
       <c r="C199" t="s">
         <v>1638</v>
@@ -22731,7 +22731,7 @@
         <v>28239</v>
       </c>
       <c r="B200" t="n">
-        <v>134075</v>
+        <v>164930</v>
       </c>
       <c r="C200" t="s">
         <v>1647</v>
@@ -22806,7 +22806,7 @@
         <v>28239</v>
       </c>
       <c r="B201" t="n">
-        <v>134076</v>
+        <v>164931</v>
       </c>
       <c r="C201" t="s">
         <v>1654</v>
@@ -22956,7 +22956,7 @@
         <v>28239</v>
       </c>
       <c r="B203" t="n">
-        <v>134077</v>
+        <v>133992</v>
       </c>
       <c r="C203" t="s">
         <v>1668</v>
@@ -23031,7 +23031,7 @@
         <v>28239</v>
       </c>
       <c r="B204" t="n">
-        <v>134078</v>
+        <v>164932</v>
       </c>
       <c r="C204" t="s">
         <v>1677</v>
@@ -23106,7 +23106,7 @@
         <v>28239</v>
       </c>
       <c r="B205" t="n">
-        <v>134079</v>
+        <v>164933</v>
       </c>
       <c r="C205" t="s">
         <v>1684</v>
@@ -23181,7 +23181,7 @@
         <v>28239</v>
       </c>
       <c r="B206" t="n">
-        <v>134080</v>
+        <v>164934</v>
       </c>
       <c r="C206" t="s">
         <v>1691</v>
@@ -23331,7 +23331,7 @@
         <v>28239</v>
       </c>
       <c r="B208" t="n">
-        <v>134081</v>
+        <v>164935</v>
       </c>
       <c r="C208" t="s">
         <v>1708</v>
@@ -23406,7 +23406,7 @@
         <v>28239</v>
       </c>
       <c r="B209" t="n">
-        <v>134082</v>
+        <v>164936</v>
       </c>
       <c r="C209" t="s">
         <v>1716</v>
@@ -23471,7 +23471,7 @@
         <v>28239</v>
       </c>
       <c r="B210" t="n">
-        <v>134083</v>
+        <v>164937</v>
       </c>
       <c r="C210" t="s">
         <v>1725</v>
@@ -23605,7 +23605,7 @@
         <v>28239</v>
       </c>
       <c r="B212" t="n">
-        <v>134084</v>
+        <v>164938</v>
       </c>
       <c r="C212" t="s">
         <v>1739</v>
@@ -23680,7 +23680,7 @@
         <v>28239</v>
       </c>
       <c r="B213" t="n">
-        <v>134085</v>
+        <v>164939</v>
       </c>
       <c r="C213" t="s">
         <v>1748</v>
@@ -23751,7 +23751,7 @@
         <v>28239</v>
       </c>
       <c r="B214" t="n">
-        <v>134086</v>
+        <v>164940</v>
       </c>
       <c r="C214" t="s">
         <v>1757</v>
@@ -23816,7 +23816,7 @@
         <v>28239</v>
       </c>
       <c r="B215" t="n">
-        <v>134087</v>
+        <v>164941</v>
       </c>
       <c r="C215" t="s">
         <v>1766</v>
@@ -23891,7 +23891,7 @@
         <v>28239</v>
       </c>
       <c r="B216" t="n">
-        <v>134088</v>
+        <v>164942</v>
       </c>
       <c r="C216" t="s">
         <v>1773</v>
@@ -23956,7 +23956,7 @@
         <v>28239</v>
       </c>
       <c r="B217" t="n">
-        <v>134089</v>
+        <v>164943</v>
       </c>
       <c r="C217" t="s">
         <v>1782</v>
@@ -24031,7 +24031,7 @@
         <v>28239</v>
       </c>
       <c r="B218" t="n">
-        <v>134090</v>
+        <v>164944</v>
       </c>
       <c r="C218" t="s">
         <v>1789</v>
@@ -24102,7 +24102,7 @@
         <v>28239</v>
       </c>
       <c r="B219" t="n">
-        <v>134091</v>
+        <v>164945</v>
       </c>
       <c r="C219" t="s">
         <v>1795</v>
@@ -24173,7 +24173,7 @@
         <v>28239</v>
       </c>
       <c r="B220" t="n">
-        <v>134092</v>
+        <v>164946</v>
       </c>
       <c r="C220" t="s">
         <v>1801</v>
@@ -24244,7 +24244,7 @@
         <v>28239</v>
       </c>
       <c r="B221" t="n">
-        <v>134093</v>
+        <v>164947</v>
       </c>
       <c r="C221" t="s">
         <v>1808</v>
@@ -24376,7 +24376,7 @@
         <v>28239</v>
       </c>
       <c r="B223" t="n">
-        <v>134094</v>
+        <v>164948</v>
       </c>
       <c r="C223" t="s">
         <v>1821</v>
@@ -24522,7 +24522,7 @@
         <v>28239</v>
       </c>
       <c r="B225" t="n">
-        <v>134095</v>
+        <v>164949</v>
       </c>
       <c r="C225" t="s">
         <v>1836</v>
@@ -24597,7 +24597,7 @@
         <v>28239</v>
       </c>
       <c r="B226" t="n">
-        <v>134096</v>
+        <v>164950</v>
       </c>
       <c r="C226" t="s">
         <v>1845</v>
@@ -24672,7 +24672,7 @@
         <v>28239</v>
       </c>
       <c r="B227" t="n">
-        <v>134097</v>
+        <v>164951</v>
       </c>
       <c r="C227" t="s">
         <v>1854</v>
@@ -24889,7 +24889,7 @@
         <v>28239</v>
       </c>
       <c r="B230" t="n">
-        <v>134098</v>
+        <v>164952</v>
       </c>
       <c r="C230" t="s">
         <v>1877</v>
@@ -24964,7 +24964,7 @@
         <v>28239</v>
       </c>
       <c r="B231" t="n">
-        <v>134099</v>
+        <v>164953</v>
       </c>
       <c r="C231" t="s">
         <v>1887</v>
@@ -25114,7 +25114,7 @@
         <v>28239</v>
       </c>
       <c r="B233" t="n">
-        <v>134100</v>
+        <v>164954</v>
       </c>
       <c r="C233" t="s">
         <v>1904</v>
@@ -25185,7 +25185,7 @@
         <v>28239</v>
       </c>
       <c r="B234" t="n">
-        <v>134101</v>
+        <v>164955</v>
       </c>
       <c r="C234" t="s">
         <v>1913</v>
@@ -25260,7 +25260,7 @@
         <v>28239</v>
       </c>
       <c r="B235" t="n">
-        <v>134076</v>
+        <v>133992</v>
       </c>
       <c r="C235" t="s">
         <v>1668</v>
@@ -25335,7 +25335,7 @@
         <v>28239</v>
       </c>
       <c r="B236" t="n">
-        <v>134102</v>
+        <v>164956</v>
       </c>
       <c r="C236" t="s">
         <v>1928</v>
@@ -25410,7 +25410,7 @@
         <v>28239</v>
       </c>
       <c r="B237" t="n">
-        <v>134103</v>
+        <v>164957</v>
       </c>
       <c r="C237" t="s">
         <v>1937</v>
@@ -25485,7 +25485,7 @@
         <v>28239</v>
       </c>
       <c r="B238" t="n">
-        <v>134104</v>
+        <v>164958</v>
       </c>
       <c r="C238" t="s">
         <v>1946</v>
@@ -25560,7 +25560,7 @@
         <v>28239</v>
       </c>
       <c r="B239" t="n">
-        <v>134105</v>
+        <v>164959</v>
       </c>
       <c r="C239" t="s">
         <v>1954</v>
@@ -25631,7 +25631,7 @@
         <v>28239</v>
       </c>
       <c r="B240" t="n">
-        <v>134106</v>
+        <v>164960</v>
       </c>
       <c r="C240" t="s">
         <v>1960</v>
@@ -25702,7 +25702,7 @@
         <v>28239</v>
       </c>
       <c r="B241" t="n">
-        <v>134107</v>
+        <v>164961</v>
       </c>
       <c r="C241" t="s">
         <v>1967</v>
@@ -25773,7 +25773,7 @@
         <v>28239</v>
       </c>
       <c r="B242" t="n">
-        <v>134108</v>
+        <v>164962</v>
       </c>
       <c r="C242" t="s">
         <v>1976</v>
@@ -25844,7 +25844,7 @@
         <v>28239</v>
       </c>
       <c r="B243" t="n">
-        <v>134109</v>
+        <v>164963</v>
       </c>
       <c r="C243" t="s">
         <v>1983</v>
@@ -25994,7 +25994,7 @@
         <v>28239</v>
       </c>
       <c r="B245" t="n">
-        <v>134110</v>
+        <v>164964</v>
       </c>
       <c r="C245" t="s">
         <v>1996</v>
@@ -26069,7 +26069,7 @@
         <v>28239</v>
       </c>
       <c r="B246" t="n">
-        <v>134111</v>
+        <v>164965</v>
       </c>
       <c r="C246" t="s">
         <v>2005</v>
@@ -26144,7 +26144,7 @@
         <v>28239</v>
       </c>
       <c r="B247" t="n">
-        <v>134112</v>
+        <v>164966</v>
       </c>
       <c r="C247" t="s">
         <v>2015</v>
@@ -26294,7 +26294,7 @@
         <v>28239</v>
       </c>
       <c r="B249" t="n">
-        <v>134113</v>
+        <v>164967</v>
       </c>
       <c r="C249" t="s">
         <v>2028</v>
@@ -26369,7 +26369,7 @@
         <v>28239</v>
       </c>
       <c r="B250" t="n">
-        <v>134114</v>
+        <v>164968</v>
       </c>
       <c r="C250" t="s">
         <v>2038</v>
@@ -26444,7 +26444,7 @@
         <v>28239</v>
       </c>
       <c r="B251" t="n">
-        <v>134115</v>
+        <v>164969</v>
       </c>
       <c r="C251" t="s">
         <v>2045</v>
@@ -26515,7 +26515,7 @@
         <v>28239</v>
       </c>
       <c r="B252" t="n">
-        <v>134116</v>
+        <v>164970</v>
       </c>
       <c r="C252" t="s">
         <v>2052</v>
@@ -26586,7 +26586,7 @@
         <v>28239</v>
       </c>
       <c r="B253" t="n">
-        <v>134117</v>
+        <v>134002</v>
       </c>
       <c r="C253" t="s">
         <v>2060</v>
@@ -26661,7 +26661,7 @@
         <v>28239</v>
       </c>
       <c r="B254" t="n">
-        <v>134118</v>
+        <v>164971</v>
       </c>
       <c r="C254" t="s">
         <v>2070</v>
@@ -26807,7 +26807,7 @@
         <v>28239</v>
       </c>
       <c r="B256" t="n">
-        <v>134119</v>
+        <v>164972</v>
       </c>
       <c r="C256" t="s">
         <v>2086</v>
@@ -26878,7 +26878,7 @@
         <v>28239</v>
       </c>
       <c r="B257" t="n">
-        <v>134120</v>
+        <v>164973</v>
       </c>
       <c r="C257" t="s">
         <v>2093</v>
@@ -27010,7 +27010,7 @@
         <v>28239</v>
       </c>
       <c r="B259" t="n">
-        <v>134121</v>
+        <v>133998</v>
       </c>
       <c r="C259" t="s">
         <v>2108</v>
@@ -27081,7 +27081,7 @@
         <v>28239</v>
       </c>
       <c r="B260" t="n">
-        <v>134122</v>
+        <v>164974</v>
       </c>
       <c r="C260" t="s">
         <v>2115</v>
@@ -27152,7 +27152,7 @@
         <v>28239</v>
       </c>
       <c r="B261" t="n">
-        <v>134123</v>
+        <v>164975</v>
       </c>
       <c r="C261" t="s">
         <v>2121</v>
@@ -27223,7 +27223,7 @@
         <v>28239</v>
       </c>
       <c r="B262" t="n">
-        <v>134124</v>
+        <v>164976</v>
       </c>
       <c r="C262" t="s">
         <v>2128</v>
@@ -27365,7 +27365,7 @@
         <v>28239</v>
       </c>
       <c r="B264" t="n">
-        <v>134125</v>
+        <v>164977</v>
       </c>
       <c r="C264" t="s">
         <v>2141</v>
@@ -27436,7 +27436,7 @@
         <v>28239</v>
       </c>
       <c r="B265" t="n">
-        <v>134126</v>
+        <v>164978</v>
       </c>
       <c r="C265" t="s">
         <v>2148</v>
@@ -27507,7 +27507,7 @@
         <v>28239</v>
       </c>
       <c r="B266" t="n">
-        <v>134127</v>
+        <v>164979</v>
       </c>
       <c r="C266" t="s">
         <v>2154</v>
@@ -27582,7 +27582,7 @@
         <v>28239</v>
       </c>
       <c r="B267" t="n">
-        <v>134120</v>
+        <v>133998</v>
       </c>
       <c r="C267" t="s">
         <v>2108</v>
@@ -27653,7 +27653,7 @@
         <v>28239</v>
       </c>
       <c r="B268" t="n">
-        <v>134128</v>
+        <v>164980</v>
       </c>
       <c r="C268" t="s">
         <v>2168</v>
@@ -27799,7 +27799,7 @@
         <v>28239</v>
       </c>
       <c r="B270" t="n">
-        <v>134129</v>
+        <v>164981</v>
       </c>
       <c r="C270" t="s">
         <v>2186</v>
@@ -27870,7 +27870,7 @@
         <v>28239</v>
       </c>
       <c r="B271" t="n">
-        <v>134130</v>
+        <v>164982</v>
       </c>
       <c r="C271" t="s">
         <v>2192</v>
@@ -28012,7 +28012,7 @@
         <v>28239</v>
       </c>
       <c r="B273" t="n">
-        <v>134131</v>
+        <v>164983</v>
       </c>
       <c r="C273" t="s">
         <v>2208</v>
@@ -28083,7 +28083,7 @@
         <v>28239</v>
       </c>
       <c r="B274" t="n">
-        <v>134132</v>
+        <v>164984</v>
       </c>
       <c r="C274" t="s">
         <v>2215</v>
@@ -28221,7 +28221,7 @@
         <v>28239</v>
       </c>
       <c r="B276" t="n">
-        <v>134133</v>
+        <v>164985</v>
       </c>
       <c r="C276" t="s">
         <v>2229</v>
@@ -28288,7 +28288,7 @@
         <v>28239</v>
       </c>
       <c r="B277" t="n">
-        <v>134134</v>
+        <v>164986</v>
       </c>
       <c r="C277" t="s">
         <v>2236</v>
@@ -28359,7 +28359,7 @@
         <v>28239</v>
       </c>
       <c r="B278" t="n">
-        <v>134135</v>
+        <v>164987</v>
       </c>
       <c r="C278" t="s">
         <v>2244</v>
@@ -28430,7 +28430,7 @@
         <v>28239</v>
       </c>
       <c r="B279" t="n">
-        <v>134136</v>
+        <v>164988</v>
       </c>
       <c r="C279" t="s">
         <v>2250</v>
@@ -28501,7 +28501,7 @@
         <v>28239</v>
       </c>
       <c r="B280" t="n">
-        <v>134137</v>
+        <v>164989</v>
       </c>
       <c r="C280" t="s">
         <v>2256</v>
@@ -28572,7 +28572,7 @@
         <v>28239</v>
       </c>
       <c r="B281" t="n">
-        <v>134138</v>
+        <v>164990</v>
       </c>
       <c r="C281" t="s">
         <v>2263</v>
@@ -28639,7 +28639,7 @@
         <v>28239</v>
       </c>
       <c r="B282" t="n">
-        <v>134139</v>
+        <v>164991</v>
       </c>
       <c r="C282" t="s">
         <v>2272</v>
@@ -28714,7 +28714,7 @@
         <v>28239</v>
       </c>
       <c r="B283" t="n">
-        <v>134140</v>
+        <v>164992</v>
       </c>
       <c r="C283" t="s">
         <v>2281</v>
@@ -28785,7 +28785,7 @@
         <v>28239</v>
       </c>
       <c r="B284" t="n">
-        <v>134116</v>
+        <v>134002</v>
       </c>
       <c r="C284" t="s">
         <v>2060</v>
@@ -28856,7 +28856,7 @@
         <v>28239</v>
       </c>
       <c r="B285" t="n">
-        <v>134141</v>
+        <v>164993</v>
       </c>
       <c r="C285" t="s">
         <v>2295</v>
@@ -28927,7 +28927,7 @@
         <v>28239</v>
       </c>
       <c r="B286" t="n">
-        <v>134142</v>
+        <v>164994</v>
       </c>
       <c r="C286" t="s">
         <v>2303</v>
@@ -28998,7 +28998,7 @@
         <v>28239</v>
       </c>
       <c r="B287" t="n">
-        <v>134143</v>
+        <v>164995</v>
       </c>
       <c r="C287" t="s">
         <v>2309</v>
@@ -29140,7 +29140,7 @@
         <v>28239</v>
       </c>
       <c r="B289" t="n">
-        <v>134144</v>
+        <v>164996</v>
       </c>
       <c r="C289" t="s">
         <v>2324</v>
@@ -29211,7 +29211,7 @@
         <v>28239</v>
       </c>
       <c r="B290" t="n">
-        <v>134145</v>
+        <v>164997</v>
       </c>
       <c r="C290" t="s">
         <v>2330</v>
@@ -29282,7 +29282,7 @@
         <v>28239</v>
       </c>
       <c r="B291" t="n">
-        <v>134146</v>
+        <v>164998</v>
       </c>
       <c r="C291" t="s">
         <v>2337</v>
@@ -29353,7 +29353,7 @@
         <v>28239</v>
       </c>
       <c r="B292" t="n">
-        <v>134147</v>
+        <v>164999</v>
       </c>
       <c r="C292" t="s">
         <v>2344</v>
@@ -29420,7 +29420,7 @@
         <v>28239</v>
       </c>
       <c r="B293" t="n">
-        <v>134148</v>
+        <v>165000</v>
       </c>
       <c r="C293" t="s">
         <v>2350</v>
@@ -29491,7 +29491,7 @@
         <v>28239</v>
       </c>
       <c r="B294" t="n">
-        <v>134149</v>
+        <v>165001</v>
       </c>
       <c r="C294" t="s">
         <v>2357</v>
@@ -29562,7 +29562,7 @@
         <v>28239</v>
       </c>
       <c r="B295" t="n">
-        <v>134150</v>
+        <v>165002</v>
       </c>
       <c r="C295" t="s">
         <v>2364</v>
@@ -29633,7 +29633,7 @@
         <v>28239</v>
       </c>
       <c r="B296" t="n">
-        <v>134151</v>
+        <v>165003</v>
       </c>
       <c r="C296" t="s">
         <v>2371</v>
@@ -29704,7 +29704,7 @@
         <v>28239</v>
       </c>
       <c r="B297" t="n">
-        <v>134152</v>
+        <v>165004</v>
       </c>
       <c r="C297" t="s">
         <v>2381</v>
@@ -29775,7 +29775,7 @@
         <v>28239</v>
       </c>
       <c r="B298" t="n">
-        <v>134153</v>
+        <v>165005</v>
       </c>
       <c r="C298" t="s">
         <v>2391</v>
@@ -29846,7 +29846,7 @@
         <v>28239</v>
       </c>
       <c r="B299" t="n">
-        <v>134154</v>
+        <v>165006</v>
       </c>
       <c r="C299" t="s">
         <v>2401</v>
@@ -29917,7 +29917,7 @@
         <v>28239</v>
       </c>
       <c r="B300" t="n">
-        <v>134155</v>
+        <v>165007</v>
       </c>
       <c r="C300" t="s">
         <v>2411</v>
@@ -29988,7 +29988,7 @@
         <v>28239</v>
       </c>
       <c r="B301" t="n">
-        <v>134156</v>
+        <v>165008</v>
       </c>
       <c r="C301" t="s">
         <v>2418</v>
@@ -30059,7 +30059,7 @@
         <v>28239</v>
       </c>
       <c r="B302" t="n">
-        <v>134157</v>
+        <v>165009</v>
       </c>
       <c r="C302" t="s">
         <v>2425</v>
@@ -30130,7 +30130,7 @@
         <v>28239</v>
       </c>
       <c r="B303" t="n">
-        <v>134158</v>
+        <v>165010</v>
       </c>
       <c r="C303" t="s">
         <v>2432</v>
@@ -30201,7 +30201,7 @@
         <v>28239</v>
       </c>
       <c r="B304" t="n">
-        <v>134159</v>
+        <v>165011</v>
       </c>
       <c r="C304" t="s">
         <v>2439</v>
@@ -30272,7 +30272,7 @@
         <v>28239</v>
       </c>
       <c r="B305" t="n">
-        <v>134160</v>
+        <v>165012</v>
       </c>
       <c r="C305" t="s">
         <v>2447</v>
@@ -30343,7 +30343,7 @@
         <v>28239</v>
       </c>
       <c r="B306" t="n">
-        <v>134161</v>
+        <v>165013</v>
       </c>
       <c r="C306" t="s">
         <v>2455</v>
@@ -30414,7 +30414,7 @@
         <v>28239</v>
       </c>
       <c r="B307" t="n">
-        <v>134162</v>
+        <v>165014</v>
       </c>
       <c r="C307" t="s">
         <v>2461</v>
@@ -30485,7 +30485,7 @@
         <v>28239</v>
       </c>
       <c r="B308" t="n">
-        <v>134163</v>
+        <v>165015</v>
       </c>
       <c r="C308" t="s">
         <v>2468</v>
@@ -30556,7 +30556,7 @@
         <v>28239</v>
       </c>
       <c r="B309" t="n">
-        <v>134164</v>
+        <v>165016</v>
       </c>
       <c r="C309" t="s">
         <v>2475</v>
@@ -30627,7 +30627,7 @@
         <v>28239</v>
       </c>
       <c r="B310" t="n">
-        <v>134165</v>
+        <v>165017</v>
       </c>
       <c r="C310" t="s">
         <v>2483</v>
@@ -30698,7 +30698,7 @@
         <v>28239</v>
       </c>
       <c r="B311" t="n">
-        <v>134166</v>
+        <v>165018</v>
       </c>
       <c r="C311" t="s">
         <v>2491</v>
@@ -30769,7 +30769,7 @@
         <v>28239</v>
       </c>
       <c r="B312" t="n">
-        <v>134167</v>
+        <v>165019</v>
       </c>
       <c r="C312" t="s">
         <v>2499</v>
@@ -30840,7 +30840,7 @@
         <v>28239</v>
       </c>
       <c r="B313" t="n">
-        <v>134168</v>
+        <v>165020</v>
       </c>
       <c r="C313" t="s">
         <v>2507</v>
@@ -30982,7 +30982,7 @@
         <v>28239</v>
       </c>
       <c r="B315" t="n">
-        <v>134169</v>
+        <v>165021</v>
       </c>
       <c r="C315" t="s">
         <v>2520</v>
@@ -31124,7 +31124,7 @@
         <v>28239</v>
       </c>
       <c r="B317" t="n">
-        <v>134170</v>
+        <v>165022</v>
       </c>
       <c r="C317" t="s">
         <v>2535</v>
@@ -31195,7 +31195,7 @@
         <v>28239</v>
       </c>
       <c r="B318" t="n">
-        <v>134171</v>
+        <v>165023</v>
       </c>
       <c r="C318" t="s">
         <v>2542</v>
@@ -31266,7 +31266,7 @@
         <v>28239</v>
       </c>
       <c r="B319" t="n">
-        <v>134172</v>
+        <v>165024</v>
       </c>
       <c r="C319" t="s">
         <v>2549</v>
@@ -31408,7 +31408,7 @@
         <v>28239</v>
       </c>
       <c r="B321" t="n">
-        <v>134173</v>
+        <v>165025</v>
       </c>
       <c r="C321" t="s">
         <v>2564</v>
@@ -31469,7 +31469,7 @@
         <v>28239</v>
       </c>
       <c r="B322" t="n">
-        <v>134174</v>
+        <v>165026</v>
       </c>
       <c r="C322" t="s">
         <v>2570</v>
@@ -31611,7 +31611,7 @@
         <v>28239</v>
       </c>
       <c r="B324" t="n">
-        <v>134175</v>
+        <v>165027</v>
       </c>
       <c r="C324" t="s">
         <v>2585</v>
@@ -31682,7 +31682,7 @@
         <v>28239</v>
       </c>
       <c r="B325" t="n">
-        <v>134176</v>
+        <v>165028</v>
       </c>
       <c r="C325" t="s">
         <v>2592</v>
@@ -31753,7 +31753,7 @@
         <v>28239</v>
       </c>
       <c r="B326" t="n">
-        <v>134177</v>
+        <v>165029</v>
       </c>
       <c r="C326" t="s">
         <v>2598</v>
@@ -31895,7 +31895,7 @@
         <v>28239</v>
       </c>
       <c r="B328" t="n">
-        <v>134178</v>
+        <v>165030</v>
       </c>
       <c r="C328" t="s">
         <v>2613</v>
@@ -31966,7 +31966,7 @@
         <v>28239</v>
       </c>
       <c r="B329" t="n">
-        <v>134179</v>
+        <v>165031</v>
       </c>
       <c r="C329" t="s">
         <v>2621</v>
@@ -32037,7 +32037,7 @@
         <v>28239</v>
       </c>
       <c r="B330" t="n">
-        <v>134180</v>
+        <v>165032</v>
       </c>
       <c r="C330" t="s">
         <v>2629</v>
@@ -32108,7 +32108,7 @@
         <v>28239</v>
       </c>
       <c r="B331" t="n">
-        <v>134181</v>
+        <v>165033</v>
       </c>
       <c r="C331" t="s">
         <v>2636</v>
@@ -32179,7 +32179,7 @@
         <v>28239</v>
       </c>
       <c r="B332" t="n">
-        <v>134182</v>
+        <v>165034</v>
       </c>
       <c r="C332" t="s">
         <v>2644</v>
@@ -32246,7 +32246,7 @@
         <v>28239</v>
       </c>
       <c r="B333" t="n">
-        <v>134183</v>
+        <v>165035</v>
       </c>
       <c r="C333" t="s">
         <v>2651</v>
@@ -32303,7 +32303,7 @@
         <v>28239</v>
       </c>
       <c r="B334" t="n">
-        <v>134184</v>
+        <v>165036</v>
       </c>
       <c r="C334" t="s">
         <v>2657</v>
@@ -32443,7 +32443,7 @@
         <v>28239</v>
       </c>
       <c r="B336" t="n">
-        <v>134185</v>
+        <v>165037</v>
       </c>
       <c r="C336" t="s">
         <v>2673</v>
@@ -32514,7 +32514,7 @@
         <v>28239</v>
       </c>
       <c r="B337" t="n">
-        <v>134186</v>
+        <v>165038</v>
       </c>
       <c r="C337" t="s">
         <v>2680</v>
@@ -32583,7 +32583,7 @@
         <v>28239</v>
       </c>
       <c r="B338" t="n">
-        <v>134187</v>
+        <v>165039</v>
       </c>
       <c r="C338" t="s">
         <v>2688</v>
@@ -32654,7 +32654,7 @@
         <v>28239</v>
       </c>
       <c r="B339" t="n">
-        <v>134188</v>
+        <v>165040</v>
       </c>
       <c r="C339" t="s">
         <v>2695</v>
@@ -32711,7 +32711,7 @@
         <v>28239</v>
       </c>
       <c r="B340" t="n">
-        <v>134189</v>
+        <v>165041</v>
       </c>
       <c r="C340" t="s">
         <v>2702</v>
@@ -32782,7 +32782,7 @@
         <v>28239</v>
       </c>
       <c r="B341" t="n">
-        <v>134190</v>
+        <v>165042</v>
       </c>
       <c r="C341" t="s">
         <v>2710</v>
@@ -32853,7 +32853,7 @@
         <v>28239</v>
       </c>
       <c r="B342" t="n">
-        <v>134191</v>
+        <v>165043</v>
       </c>
       <c r="C342" t="s">
         <v>2717</v>
@@ -32967,7 +32967,7 @@
         <v>28239</v>
       </c>
       <c r="B344" t="n">
-        <v>134192</v>
+        <v>165044</v>
       </c>
       <c r="C344" t="s">
         <v>2729</v>
@@ -33038,7 +33038,7 @@
         <v>28239</v>
       </c>
       <c r="B345" t="n">
-        <v>134193</v>
+        <v>165045</v>
       </c>
       <c r="C345" t="s">
         <v>2736</v>
@@ -33109,7 +33109,7 @@
         <v>28239</v>
       </c>
       <c r="B346" t="n">
-        <v>134194</v>
+        <v>165046</v>
       </c>
       <c r="C346" t="s">
         <v>2743</v>
@@ -33180,7 +33180,7 @@
         <v>28239</v>
       </c>
       <c r="B347" t="n">
-        <v>134195</v>
+        <v>165047</v>
       </c>
       <c r="C347" t="s">
         <v>2751</v>
@@ -33237,7 +33237,7 @@
         <v>28239</v>
       </c>
       <c r="B348" t="n">
-        <v>134196</v>
+        <v>165048</v>
       </c>
       <c r="C348" t="s">
         <v>2757</v>
@@ -33379,7 +33379,7 @@
         <v>28239</v>
       </c>
       <c r="B350" t="n">
-        <v>134197</v>
+        <v>165049</v>
       </c>
       <c r="C350" t="s">
         <v>2770</v>
@@ -33446,7 +33446,7 @@
         <v>28239</v>
       </c>
       <c r="B351" t="n">
-        <v>134198</v>
+        <v>165050</v>
       </c>
       <c r="C351" t="s">
         <v>2777</v>
@@ -33517,7 +33517,7 @@
         <v>28239</v>
       </c>
       <c r="B352" t="n">
-        <v>134199</v>
+        <v>165051</v>
       </c>
       <c r="C352" t="s">
         <v>2784</v>
@@ -33574,7 +33574,7 @@
         <v>28239</v>
       </c>
       <c r="B353" t="n">
-        <v>134200</v>
+        <v>165052</v>
       </c>
       <c r="C353" t="s">
         <v>2791</v>
@@ -33639,7 +33639,7 @@
         <v>28239</v>
       </c>
       <c r="B354" t="n">
-        <v>134201</v>
+        <v>165053</v>
       </c>
       <c r="C354" t="s">
         <v>2798</v>
@@ -33696,7 +33696,7 @@
         <v>28239</v>
       </c>
       <c r="B355" t="n">
-        <v>134202</v>
+        <v>165054</v>
       </c>
       <c r="C355" t="s">
         <v>2804</v>
@@ -33887,7 +33887,7 @@
         <v>28239</v>
       </c>
       <c r="B358" t="n">
-        <v>134203</v>
+        <v>165055</v>
       </c>
       <c r="C358" t="s">
         <v>2818</v>
@@ -33935,7 +33935,7 @@
         <v>28239</v>
       </c>
       <c r="B359" t="n">
-        <v>134204</v>
+        <v>165056</v>
       </c>
       <c r="C359" t="s">
         <v>2822</v>
@@ -34000,7 +34000,7 @@
         <v>28239</v>
       </c>
       <c r="B360" t="n">
-        <v>134205</v>
+        <v>165057</v>
       </c>
       <c r="C360" t="s">
         <v>2828</v>
@@ -34065,7 +34065,7 @@
         <v>28239</v>
       </c>
       <c r="B361" t="n">
-        <v>134206</v>
+        <v>165058</v>
       </c>
       <c r="C361" t="s">
         <v>2835</v>
@@ -34170,7 +34170,7 @@
         <v>28239</v>
       </c>
       <c r="B363" t="n">
-        <v>134207</v>
+        <v>165059</v>
       </c>
       <c r="C363" t="s">
         <v>2845</v>
@@ -34227,7 +34227,7 @@
         <v>28239</v>
       </c>
       <c r="B364" t="n">
-        <v>134208</v>
+        <v>165060</v>
       </c>
       <c r="C364" t="s">
         <v>2852</v>
